--- a/biology/Zoologie/Hippotion_boerhaviae/Hippotion_boerhaviae.xlsx
+++ b/biology/Zoologie/Hippotion_boerhaviae/Hippotion_boerhaviae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hippotion boerhaviae est une espèce de lépidoptères de la famille des Sphingidae, sous-famille des Macroglossinae, de la tribu des Macroglossini et du genre Hippotion.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure varie de 50 à 68 mm. Les chenilles sont vertes avec des taches noires et blanches de chaque côté. La chrysalide est brun argenté, avec une rangée de points noirs de chaque côté.
 			Femelle face dorsal
@@ -544,7 +558,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
 L'espèce est connue  au Sri Lanka, en Inde, au Népal, en Thaïlande, dans le sud-est de la Chine (Hong Kong et Guangdong), au Vietnam, en Indonésie, aux Philippines, en Australie orientale et en Nouvelle-Calédonie.</t>
@@ -575,7 +591,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles se nourrissent principalement des espèces Oldenlandia et Spermacoce. En Inde, elles ont  vues sur des espèces d’ impatiens , Spermacoce stricta, Spermacoce hispida , et Glossostigma' spathulatum, Boerhavia repens et Boerhavia diffusa. La plante hôte est Pentas lanceolata en Australie.
 </t>
@@ -606,13 +624,50 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Hippotion boerhaviae a été décrite par l'entomologiste danois Johan Christian Fabricius en 1775, sous le nom initial de Sphinx boerhaviae[1].
-Synonymie
-Sphinx boerhaviae Fabricius, 1775 protonyme
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hippotion boerhaviae a été décrite par l'entomologiste danois Johan Christian Fabricius en 1775, sous le nom initial de Sphinx boerhaviae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hippotion_boerhaviae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hippotion_boerhaviae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sphinx boerhaviae Fabricius, 1775 protonyme
 Sphinx vampyrus Fabricius, 1787
-Sphinx octopunctata Gmelin, 1790 [2]</t>
+Sphinx octopunctata Gmelin, 1790 </t>
         </is>
       </c>
     </row>
